--- a/Bootstrap.xlsx
+++ b/Bootstrap.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://campuseni-my.sharepoint.com/personal/olivier_billant2022_campus-eni_fr/Documents/2022-02-07 - S3 - Html_et_CSS/TP/10 Bootstrap/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://campuseni-my.sharepoint.com/personal/olivier_billant2022_campus-eni_fr/Documents/2022-02-07 - S3 - Html_et_CSS/TP/11 Bottstrap responsive/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{EA8F7B1C-3180-4A24-8BE8-41FECEDD268D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{187434FB-2AB2-4BFC-AA6F-822E28675370}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="8_{EA8F7B1C-3180-4A24-8BE8-41FECEDD268D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B88A1397-16D7-4E5F-80D4-C4E5B892E374}"/>
   <bookViews>
     <workbookView xWindow="12720" yWindow="15" windowWidth="16065" windowHeight="10710" xr2:uid="{1E058EA1-0163-41BC-93EF-FB270F0895AF}"/>
   </bookViews>
@@ -32,9 +32,32 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="6">
+  <si>
+    <t>col-xl-2</t>
+  </si>
+  <si>
+    <t>col-md-4</t>
+  </si>
+  <si>
+    <t>col-sm-12</t>
+  </si>
+  <si>
+    <t>Full-screen</t>
+  </si>
+  <si>
+    <t>Tablette</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -42,8 +65,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -56,8 +85,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -85,29 +150,7 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -115,14 +158,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,61 +486,268 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F77741-A075-4C4A-A495-26C463FD2AFB}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="1">
         <v>1</v>
       </c>
-      <c r="B1" s="1">
+      <c r="C1" s="1">
         <v>2</v>
       </c>
-      <c r="C1" s="1">
+      <c r="D1" s="1">
         <v>3</v>
       </c>
-      <c r="D1" s="1">
+      <c r="E1" s="1">
         <v>4</v>
       </c>
-      <c r="E1" s="1">
+      <c r="F1" s="1">
         <v>5</v>
       </c>
-      <c r="F1" s="1">
+      <c r="G1" s="1">
         <v>6</v>
       </c>
-      <c r="G1" s="1">
+      <c r="H1" s="1">
         <v>7</v>
       </c>
-      <c r="H1" s="1">
+      <c r="I1" s="1">
         <v>8</v>
       </c>
-      <c r="I1" s="1">
+      <c r="J1" s="1">
         <v>9</v>
       </c>
-      <c r="J1" s="1">
+      <c r="K1" s="1">
         <v>10</v>
       </c>
-      <c r="K1" s="1">
+      <c r="L1" s="1">
         <v>11</v>
       </c>
-      <c r="L1" s="1">
+      <c r="M1" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4"/>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8"/>
+      <c r="J2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="9"/>
+      <c r="L2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="10"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>